--- a/data/case1/18/Q2_2.xlsx
+++ b/data/case1/18/Q2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.19771147265471711</v>
+        <v>0.23512655154714679</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999618405297</v>
+        <v>-0.0059999999757991418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999649733553</v>
+        <v>-0.0039999999781716866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999375175435</v>
+        <v>-0.0079999999601199079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999654526377</v>
+        <v>-0.0029999999768106633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999658875112</v>
+        <v>-0.0019999999743998131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999165754083</v>
+        <v>-0.0099999999436461984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999139739337</v>
+        <v>-0.0099999999437394571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999609576768</v>
+        <v>-0.0019999999753022024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999588868889</v>
+        <v>-0.0019999999762774223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999526530985</v>
+        <v>-0.0029999999722560844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999492186795</v>
+        <v>-0.0034999999706819551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999474862875</v>
+        <v>-0.0034999999729281583</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999196278537</v>
+        <v>-0.0079999999565840696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996270838665</v>
+        <v>-0.00099999998477340313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999565682991</v>
+        <v>0.028114300870500042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0029115087226134762</v>
+        <v>-0.0019999999831590287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.003999999944432453</v>
+        <v>0.0093966756540320162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999739088743</v>
+        <v>-0.0039999999829967159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999719722013</v>
+        <v>-0.003999999977695623</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999716675561</v>
+        <v>-0.0039999999764726013</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999714259715</v>
+        <v>-0.043365022910090367</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999955006551</v>
+        <v>-0.0049999999730996336</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999854980466</v>
+        <v>-0.019999999913111743</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.055359374909686121</v>
+        <v>-0.019999999911950894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.002499999962696009</v>
+        <v>-0.0024999999715085153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999622004054</v>
+        <v>-0.0024999999696957431</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999631021836</v>
+        <v>-0.0019999999641191479</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.022589191553616494</v>
+        <v>-0.0069999999394685375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0051421586671818176</v>
+        <v>-0.059999999732885723</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.031110080413666807</v>
+        <v>-0.0069999999349175113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999048794308</v>
+        <v>-0.0099999999231012993</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999941674659</v>
+        <v>-0.0039999999460693658</v>
       </c>
     </row>
   </sheetData>
